--- a/files/xlsx/interface_app.xlsx
+++ b/files/xlsx/interface_app.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33040" windowHeight="17880"/>
+    <workbookView xWindow="-33040" yWindow="3180" windowWidth="33040" windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>用例ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>请求方式</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>登录接口</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{'code': 0}</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>开奖结果</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>投注</t>
   </si>
   <si>
-    <t>[{'after':1,'playId':657,'issue':'720000','rebate':0,'unitFee':400,'numbers':'12'}]</t>
-  </si>
-  <si>
     <t>/front/bet/betting.do</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>/account/manage/complete_bankinfo.do</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>取款</t>
   </si>
   <si>
@@ -296,14 +281,46 @@
     <t>/front/lottery/lottery_group.do</t>
   </si>
   <si>
-    <t>{'code': 0}</t>
+    <t>期望code值</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>预期</t>
-    <rPh sb="0" eb="2">
-      <t>cbad</t>
+    <t>是否测试</t>
+    <rPh sb="0" eb="1">
+      <t>wfhg</t>
     </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>gik</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'after':1,'playId':657,'issue':'720000','rebate':0,'unitFee':400,'numbers':'12'}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -789,17 +806,17 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32" style="5" customWidth="1"/>
     <col min="3" max="3" width="121.1640625" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -820,10 +837,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -831,22 +848,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -854,19 +871,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -874,19 +891,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -894,22 +911,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -917,19 +934,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -937,19 +954,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -957,19 +974,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -977,19 +994,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
@@ -997,19 +1014,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,19 +1034,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -1037,19 +1054,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
@@ -1057,19 +1074,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -1077,19 +1094,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -1097,19 +1114,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1117,19 +1134,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -1137,19 +1154,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -1157,19 +1174,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
@@ -1177,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
@@ -1197,22 +1214,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
@@ -1220,22 +1237,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -1243,22 +1260,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="15">
@@ -1266,22 +1283,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
@@ -1289,22 +1306,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="15">
@@ -1312,22 +1329,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="15">
@@ -1335,22 +1352,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
@@ -1358,22 +1375,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
@@ -1381,22 +1398,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
@@ -1404,22 +1421,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
@@ -1427,22 +1444,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15">
@@ -1450,22 +1467,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1473,22 +1490,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="15">
@@ -1496,22 +1513,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1519,22 +1536,22 @@
         <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1542,22 +1559,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/files/xlsx/interface_app.xlsx
+++ b/files/xlsx/interface_app.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33040" yWindow="3180" windowWidth="33040" windowHeight="17880"/>
+    <workbookView xWindow="6280" yWindow="4420" windowWidth="33040" windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>用例ID</t>
   </si>
@@ -321,6 +321,21 @@
   </si>
   <si>
     <t>{'after':1,'playId':657,'issue':'720000','rebate':0,'unitFee':400,'numbers':'12'}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求sessionid</t>
+    <rPh sb="0" eb="1">
+      <t>yge</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/passport/distribute_sessionid.do</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -843,21 +858,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -868,33 +880,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -908,16 +923,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -931,73 +943,76 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="4">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1011,53 +1026,53 @@
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="4">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
@@ -1071,13 +1086,13 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1091,13 +1106,13 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -1111,13 +1126,13 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="4">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
@@ -1131,13 +1146,13 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
@@ -1151,13 +1166,13 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="4">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
@@ -1171,13 +1186,13 @@
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="4">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -1191,13 +1206,13 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
@@ -1211,16 +1226,13 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="4">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
@@ -1234,16 +1246,16 @@
     </row>
     <row r="21" spans="1:7" ht="15">
       <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1257,154 +1269,154 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="15">
-      <c r="A23" s="12">
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="15">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="E24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="4">
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A25" s="16">
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="15">
-      <c r="A26" s="12">
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="15">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="E27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="4">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
@@ -1413,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
@@ -1436,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
       <c r="A30" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
@@ -1464,16 +1476,16 @@
     </row>
     <row r="31" spans="1:7" ht="15">
       <c r="A31" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -1487,64 +1499,64 @@
     </row>
     <row r="32" spans="1:7" ht="15">
       <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A33" s="16">
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="4">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="4">
@@ -1556,31 +1568,54 @@
     </row>
     <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="http://www.tuling123.com/openapi/api_x000a_"/>
+    <hyperlink ref="D3" r:id="rId1" tooltip="http://www.tuling123.com/openapi/api_x000a_"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
